--- a/dataset_v1/task_sheet_answers/IncomeStatement/4_IncomeStatement/4_IncomeStatement_gt1.xlsx
+++ b/dataset_v1/task_sheet_answers/IncomeStatement/4_IncomeStatement/4_IncomeStatement_gt1.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="11292" windowHeight="12360" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12360" windowWidth="11292" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
   <pivotCaches>
-    <pivotCache xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cacheId="20" r:id="rId3"/>
+    <pivotCache cacheId="20" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -20,7 +20,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_-\$* #,##0.00_ ;_-\$* \-#,##0.00\ ;_-\$* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt formatCode="_-\$* #,##0.00_ ;_-\$* \-#,##0.00\ ;_-\$* &quot;-&quot;??_ ;_-@_ " numFmtId="164"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -57,35 +57,35 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="1" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="1" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -158,13 +158,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" refreshedBy="hongxin li" refreshedDate="45054.87109143518" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="8" r:id="rId1">
+<pivotCacheDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" createdVersion="8" minRefreshableVersion="3" recordCount="8" refreshedBy="hongxin li" refreshedDate="45054.87109143518" refreshedVersion="8" r:id="rId1">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:H9" sheet="Sheet1"/>
   </cacheSource>
   <cacheFields count="8">
-    <cacheField name="Year" uniqueList="1" numFmtId="0" sqlType="0" hierarchy="0" level="0" databaseField="1">
-      <sharedItems count="8" containsInteger="1" containsNumber="1" containsSemiMixedTypes="0" containsString="0" minValue="2015" maxValue="2022">
+    <cacheField databaseField="1" hierarchy="0" level="0" name="Year" numFmtId="0" sqlType="0" uniqueList="1">
+      <sharedItems containsInteger="1" containsNumber="1" containsSemiMixedTypes="0" containsString="0" count="8" maxValue="2022" minValue="2015">
         <n v="2015"/>
         <n v="2016"/>
         <n v="2017"/>
@@ -175,17 +175,17 @@
         <n v="2022"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Net Sales" uniqueList="1" numFmtId="176" sqlType="0" hierarchy="0" level="0" databaseField="1">
-      <sharedItems count="0" containsInteger="1" containsNumber="1" containsSemiMixedTypes="0" containsString="0" minValue="74000" maxValue="125242"/>
+    <cacheField databaseField="1" hierarchy="0" level="0" name="Net Sales" numFmtId="176" sqlType="0" uniqueList="1">
+      <sharedItems containsInteger="1" containsNumber="1" containsSemiMixedTypes="0" containsString="0" count="0" maxValue="125242" minValue="74000"/>
     </cacheField>
-    <cacheField name="COGS" uniqueList="1" numFmtId="176" sqlType="0" hierarchy="0" level="0" databaseField="1">
-      <sharedItems count="0" containsInteger="1" containsNumber="1" containsSemiMixedTypes="0" containsString="0" minValue="29855" maxValue="79287"/>
+    <cacheField databaseField="1" hierarchy="0" level="0" name="COGS" numFmtId="176" sqlType="0" uniqueList="1">
+      <sharedItems containsInteger="1" containsNumber="1" containsSemiMixedTypes="0" containsString="0" count="0" maxValue="79287" minValue="29855"/>
     </cacheField>
-    <cacheField name="Gross Profit" uniqueList="1" numFmtId="176" sqlType="0" hierarchy="0" level="0" databaseField="1">
-      <sharedItems count="0" containsBlank="1" containsNonDate="0" containsString="0"/>
+    <cacheField databaseField="1" hierarchy="0" level="0" name="Gross Profit" numFmtId="176" sqlType="0" uniqueList="1">
+      <sharedItems containsBlank="1" containsNonDate="0" containsString="0" count="0"/>
     </cacheField>
-    <cacheField name="Operating Expenses" uniqueList="1" numFmtId="176" sqlType="0" hierarchy="0" level="0" databaseField="1">
-      <sharedItems count="8" containsInteger="1" containsNumber="1" containsSemiMixedTypes="0" containsString="0" minValue="37322" maxValue="46076">
+    <cacheField databaseField="1" hierarchy="0" level="0" name="Operating Expenses" numFmtId="176" sqlType="0" uniqueList="1">
+      <sharedItems containsInteger="1" containsNumber="1" containsSemiMixedTypes="0" containsString="0" count="8" maxValue="46076" minValue="37322">
         <n v="37322"/>
         <n v="44450"/>
         <n v="40498"/>
@@ -196,14 +196,14 @@
         <n v="38307"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Operating Profit" uniqueList="1" numFmtId="176" sqlType="0" hierarchy="0" level="0" databaseField="1">
-      <sharedItems count="0" containsBlank="1" containsNonDate="0" containsString="0"/>
+    <cacheField databaseField="1" hierarchy="0" level="0" name="Operating Profit" numFmtId="176" sqlType="0" uniqueList="1">
+      <sharedItems containsBlank="1" containsNonDate="0" containsString="0" count="0"/>
     </cacheField>
-    <cacheField name="Tax Expense" uniqueList="1" numFmtId="176" sqlType="0" hierarchy="0" level="0" databaseField="1">
-      <sharedItems count="0" containsNumber="1" containsSemiMixedTypes="0" containsString="0" minValue="20.4" maxValue="1529.6"/>
+    <cacheField databaseField="1" hierarchy="0" level="0" name="Tax Expense" numFmtId="176" sqlType="0" uniqueList="1">
+      <sharedItems containsNumber="1" containsSemiMixedTypes="0" containsString="0" count="0" maxValue="1529.6" minValue="20.4"/>
     </cacheField>
-    <cacheField name="Net Profit" uniqueList="1" numFmtId="176" sqlType="0" hierarchy="0" level="0" databaseField="1">
-      <sharedItems count="0" containsBlank="1" containsNonDate="0" containsString="0"/>
+    <cacheField databaseField="1" hierarchy="0" level="0" name="Net Profit" numFmtId="176" sqlType="0" uniqueList="1">
+      <sharedItems containsBlank="1" containsNonDate="0" containsString="0" count="0"/>
     </cacheField>
   </cacheFields>
 </pivotCacheDefinition>
@@ -295,81 +295,81 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="20" dataOnRows="0" dataCaption="Values" showError="0" showMissing="1" updatedVersion="8" minRefreshableVersion="3" asteriskTotals="0" showItems="1" editData="0" disableFieldList="0" showCalcMbrs="1" visualTotals="1" showMultipleLabel="1" showDataDropDown="1" showDrill="1" printDrill="0" showMemberPropertyTips="1" showDataTips="1" enableWizard="1" enableDrill="1" enableFieldProperties="1" preserveFormatting="1" useAutoFormatting="1" pageWrap="0" pageOverThenDown="0" subtotalHiddenItems="0" rowGrandTotals="1" colGrandTotals="1" fieldPrintTitles="0" itemPrintTitles="1" mergeItem="0" showDropZones="1" createdVersion="8" indent="0" showEmptyRow="0" showEmptyCol="0" showHeaders="1" compact="1" outline="1" outlineData="1" compactData="1" published="0" gridDropZones="0" immersive="1" multipleFieldFilters="0" chartFormat="0" fieldListSortAscending="0" mdxSubqueries="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" r:id="rId1">
-  <location ref="A1:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" applyAlignmentFormats="0" applyBorderFormats="0" applyFontFormats="0" applyNumberFormats="0" applyPatternFormats="0" applyWidthHeightFormats="1" asteriskTotals="0" cacheId="20" chartFormat="0" colGrandTotals="1" compact="1" compactData="1" createdVersion="8" dataCaption="Values" dataOnRows="0" disableFieldList="0" editData="0" enableDrill="1" enableFieldProperties="1" enableWizard="1" fieldListSortAscending="0" fieldPrintTitles="0" gridDropZones="0" immersive="1" indent="0" itemPrintTitles="1" mdxSubqueries="0" mergeItem="0" minRefreshableVersion="3" multipleFieldFilters="0" name="PivotTable6" outline="1" outlineData="1" pageOverThenDown="0" pageWrap="0" preserveFormatting="1" printDrill="0" published="0" rowGrandTotals="1" showCalcMbrs="1" showDataDropDown="1" showDataTips="1" showDrill="1" showDropZones="1" showEmptyCol="0" showEmptyRow="0" showError="0" showHeaders="1" showItems="1" showMemberPropertyTips="1" showMissing="1" showMultipleLabel="1" subtotalHiddenItems="0" updatedVersion="8" useAutoFormatting="1" visualTotals="1" r:id="rId1">
+  <location firstDataCol="1" firstDataRow="1" firstHeaderRow="1" ref="A1:B10"/>
   <pivotFields count="8">
-    <pivotField axis="axisRow" showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1">
+    <pivotField axis="axisRow" compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1">
       <items count="9">
-        <item t="data" sd="1" x="0"/>
-        <item t="data" sd="1" x="1"/>
-        <item t="data" sd="1" x="2"/>
-        <item t="data" sd="1" x="3"/>
-        <item t="data" sd="1" x="4"/>
-        <item t="data" sd="1" x="5"/>
-        <item t="data" sd="1" x="6"/>
-        <item t="data" sd="1" x="7"/>
-        <item t="default" sd="1"/>
+        <item sd="1" t="data" x="0"/>
+        <item sd="1" t="data" x="1"/>
+        <item sd="1" t="data" x="2"/>
+        <item sd="1" t="data" x="3"/>
+        <item sd="1" t="data" x="4"/>
+        <item sd="1" t="data" x="5"/>
+        <item sd="1" t="data" x="6"/>
+        <item sd="1" t="data" x="7"/>
+        <item sd="1" t="default"/>
       </items>
     </pivotField>
-    <pivotField showDropDowns="1" compact="1" numFmtId="176" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
-    <pivotField showDropDowns="1" compact="1" numFmtId="176" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
-    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
-    <pivotField dataField="1" showDropDowns="1" compact="1" numFmtId="176" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1">
+    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" numFmtId="176" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
+    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" numFmtId="176" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
+    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
+    <pivotField compact="1" dataField="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" numFmtId="176" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1">
       <items count="9">
-        <item t="data" sd="1" x="0"/>
-        <item t="data" sd="1" x="7"/>
-        <item t="data" sd="1" x="2"/>
-        <item t="data" sd="1" x="5"/>
-        <item t="data" sd="1" x="3"/>
-        <item t="data" sd="1" x="1"/>
-        <item t="data" sd="1" x="4"/>
-        <item t="data" sd="1" x="6"/>
-        <item t="default" sd="1"/>
+        <item sd="1" t="data" x="0"/>
+        <item sd="1" t="data" x="7"/>
+        <item sd="1" t="data" x="2"/>
+        <item sd="1" t="data" x="5"/>
+        <item sd="1" t="data" x="3"/>
+        <item sd="1" t="data" x="1"/>
+        <item sd="1" t="data" x="4"/>
+        <item sd="1" t="data" x="6"/>
+        <item sd="1" t="default"/>
       </items>
     </pivotField>
-    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
-    <pivotField showDropDowns="1" compact="1" numFmtId="176" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
-    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
+    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
+    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" numFmtId="176" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
+    <pivotField compact="1" defaultSubtotal="1" dragOff="1" dragToCol="1" dragToData="1" dragToPage="1" dragToRow="1" itemPageCount="10" outline="1" showAll="0" showDropDowns="1" sortType="manual" subtotalTop="1" topAutoShow="1"/>
   </pivotFields>
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
   <rowItems count="9">
-    <i t="data" r="0" i="0">
+    <i i="0" r="0" t="data">
       <x v="0"/>
     </i>
-    <i t="data" r="0" i="0">
+    <i i="0" r="0" t="data">
       <x v="1"/>
     </i>
-    <i t="data" r="0" i="0">
+    <i i="0" r="0" t="data">
       <x v="2"/>
     </i>
-    <i t="data" r="0" i="0">
+    <i i="0" r="0" t="data">
       <x v="3"/>
     </i>
-    <i t="data" r="0" i="0">
+    <i i="0" r="0" t="data">
       <x v="4"/>
     </i>
-    <i t="data" r="0" i="0">
+    <i i="0" r="0" t="data">
       <x v="5"/>
     </i>
-    <i t="data" r="0" i="0">
+    <i i="0" r="0" t="data">
       <x v="6"/>
     </i>
-    <i t="data" r="0" i="0">
+    <i i="0" r="0" t="data">
       <x v="7"/>
     </i>
-    <i t="grand" r="0" i="0">
+    <i i="0" r="0" t="grand">
       <x v="0"/>
     </i>
   </rowItems>
   <colItems count="1">
-    <i t="data" r="0" i="0"/>
+    <i i="0" r="0" t="data"/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Average of Operating Expenses" fld="4" subtotal="average" showDataAs="normal" baseField="0" baseItem="0"/>
+    <dataField baseField="0" baseItem="0" fld="4" name="Average of Operating Expenses" showDataAs="normal" subtotal="average"/>
   </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <pivotTableStyleInfo name="PivotStyleLight16" showColHeaders="1" showColStripes="0" showLastColumn="1" showRowHeaders="1" showRowStripes="0"/>
 </pivotTableDefinition>
 </file>
 
@@ -682,8 +682,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="14.33203125" bestFit="1" customWidth="1" style="5" min="1" max="1"/>
-    <col width="32.5546875" bestFit="1" customWidth="1" style="5" min="2" max="2"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="5" width="14.33203125"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="5" width="32.5546875"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -773,7 +773,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -791,13 +791,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="13.33203125" bestFit="1" customWidth="1" style="5" min="2" max="2"/>
-    <col width="12.21875" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
-    <col width="13.77734375" customWidth="1" style="5" min="4" max="4"/>
-    <col width="19.109375" customWidth="1" style="5" min="5" max="5"/>
-    <col width="15.21875" customWidth="1" style="5" min="6" max="6"/>
-    <col width="11.21875" customWidth="1" style="5" min="7" max="7"/>
-    <col width="13.5546875" customWidth="1" style="5" min="8" max="8"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="5" width="13.33203125"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" style="5" width="12.21875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="13.77734375"/>
+    <col customWidth="1" max="5" min="5" style="5" width="19.109375"/>
+    <col customWidth="1" max="6" min="6" style="5" width="15.21875"/>
+    <col customWidth="1" max="7" min="7" style="5" width="11.21875"/>
+    <col customWidth="1" max="8" min="8" style="5" width="13.5546875"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1003,6 +1003,6 @@
       <c r="H9" s="6" t="n"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>